--- a/ss1991zh/evidence.xlsx
+++ b/ss1991zh/evidence.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\QingLian\gon-workshop\gonEv\web3Team\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
   <si>
     <t>TeamName</t>
   </si>
@@ -163,18 +167,55 @@
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
+  <si>
+    <t xml:space="preserve">mobile </t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>xiaomi</t>
+  </si>
+  <si>
+    <t>4718156868501550FF33E1FF4571191E029ADA0C8B512C63828CAF9EC6B9C62A</t>
+  </si>
+  <si>
+    <t>810C5817C9071BA02071C6F829B2C192E2AAD073AE62651C19D09181D61F3246</t>
+  </si>
+  <si>
+    <t>F75E139A20E109CE830827A607A1F08D012954038C4F39342C3C53151CC39C49</t>
+  </si>
+  <si>
+    <t>A18318E28DC59BEF83C71F1944E539CA4D254369E39F4B7D49FA3D6767BDE32C</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptickd_7000-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47B2136E509714A0BAB695B441553C0E0AAEF321884BF2E45ABE354A632C94BE</t>
+  </si>
+  <si>
+    <t>39142AB8762ED18B3A108057D76E4720F154747D1CBF8D0DEDCC26025B4735EC</t>
+  </si>
+  <si>
+    <t>ibc/05AA749ABB711BCAE768C66EC26218D41939EFFCFC817B3F3846B71322BB5BEB</t>
+  </si>
+  <si>
+    <t>0623AF6A89A0E1A6CC52762A36EEF0F1C1C8E9383A40D16BB6BD182A36C96CE8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -185,172 +226,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,194 +266,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -564,243 +275,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -809,58 +288,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -933,6 +366,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1190,31 +626,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="14.6160714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="17.5089285714286" customWidth="1"/>
-    <col min="4" max="4" width="16.1339285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.1160714285714" customWidth="1"/>
-    <col min="6" max="6" width="17.7410714285714" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.0714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:8">
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1293,27 +729,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1330,27 +763,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,7 +788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,27 +797,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1404,27 +831,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1441,27 +865,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1477,38 +898,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1524,38 +942,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1563,7 +978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1571,38 +986,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1610,7 +1022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1618,38 +1030,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1665,38 +1074,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1712,38 +1118,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1751,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1759,28 +1164,33 @@
         <v>27</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,7 +1198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1796,38 +1206,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1843,52 +1250,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="16.4" customHeight="1" spans="1:1">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1897,34 +1302,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1933,34 +1338,34 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1969,34 +1374,34 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -2005,21 +1410,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +1434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2041,29 +1445,47 @@
         <v>29</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +1499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2091,29 +1513,42 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +1562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2141,29 +1576,42 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +1625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2191,31 +1639,44 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.2589285714286" customWidth="1"/>
-    <col min="4" max="4" width="14.3839285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2229,7 +1690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2243,28 +1704,39 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +1744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2281,27 +1753,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2309,7 +1778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2318,8 +1787,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>